--- a/Wetlands/SamplingNotes/SamplingData_Wetland-06_2022-06-30.xlsx
+++ b/Wetlands/SamplingNotes/SamplingData_Wetland-06_2022-06-30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\Documents\Ecuador2022\Wetlands\SamplingNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E0BE6-F675-487F-B476-0C11B3B88AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E706E1E-8964-4291-9EEC-62DA470B16EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB01EF61-F6F1-F14D-BCA3-6A9AF76CAAA2}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -674,7 +674,7 @@
         <v>126</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>0.41805555555555557</v>
